--- a/ablation/ablation.xlsx
+++ b/ablation/ablation.xlsx
@@ -55,16 +55,16 @@
     <t>triangleCount</t>
   </si>
   <si>
+    <t>433.milc</t>
+  </si>
+  <si>
+    <t>444.namd</t>
+  </si>
+  <si>
     <t>462.libquantum</t>
   </si>
   <si>
     <t>473.astar</t>
-  </si>
-  <si>
-    <t>444.namd</t>
-  </si>
-  <si>
-    <t>433.milc</t>
   </si>
   <si>
     <t>avg</t>
@@ -472,7 +472,7 @@
     <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="60.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,10 +495,10 @@
         <v>1.099399124</v>
       </c>
       <c r="D2" s="4">
-        <v>1.037780094</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1.031357957</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -523,10 +523,10 @@
         <v>1.064523698</v>
       </c>
       <c r="D4" s="4">
-        <v>1.004711232</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -537,10 +537,10 @@
         <v>1.090923077</v>
       </c>
       <c r="D5" s="4">
-        <v>1.000669266</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+        <v>1.010669266</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,10 +551,10 @@
         <v>1.05682853</v>
       </c>
       <c r="D6" s="4">
-        <v>1.000050531</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -562,13 +562,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>1.169957361</v>
+        <v>1.203956894</v>
       </c>
       <c r="D7" s="4">
-        <v>1.076999594</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+        <v>1.083934814</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -576,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <v>1.163842452</v>
+        <v>1.200144892</v>
       </c>
       <c r="D8" s="4">
-        <v>1.075731369</v>
+        <v>1.063103337</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
@@ -590,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6">
-        <v>1.170986602</v>
+        <v>1.19747838</v>
       </c>
       <c r="D9" s="6">
-        <v>1.080494049</v>
+        <v>1.012522982</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
@@ -604,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6">
-        <v>1.16844844</v>
+        <v>1.178302921</v>
       </c>
       <c r="D10" s="6">
-        <v>1.076219676</v>
+        <v>1.011797774</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <v>1.171917796</v>
+        <v>1.202112925</v>
       </c>
       <c r="D11" s="6">
-        <v>1.081100326</v>
+        <v>1.1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
@@ -632,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>1.078381894</v>
+        <v>1.096344662</v>
       </c>
       <c r="D12" s="6">
-        <v>1.171731781</v>
+        <v>1.08544654</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
@@ -646,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="6">
-        <v>1.061772725</v>
+        <v>1.004385721</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>1.000017489</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
@@ -660,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="6">
-        <v>1.185380277</v>
+        <v>1.154520543</v>
       </c>
       <c r="D14" s="6">
-        <v>1.005618557</v>
+        <v>1.033111217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
@@ -674,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="6">
-        <v>1.07100243</v>
+        <v>1.069062055</v>
       </c>
       <c r="D15" s="6">
-        <v>1.158657368</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="20.25">
+        <v>0.9999999929</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -688,10 +688,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="4">
-        <v>1.124290331</v>
+        <v>1.128905975</v>
       </c>
       <c r="D16" s="4">
-        <v>1.057222986</v>
+        <v>1.03039821</v>
       </c>
     </row>
   </sheetData>
